--- a/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -549,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -639,39 +640,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 2,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,2; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,19; 2,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 2,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,27; 1,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 3,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,36; 3,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 1,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,29; 1,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,87; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,02</t>
+          <t>0,29; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,35; 4,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,56; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,38; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>1,18; 3,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -879,39 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,95</t>
+          <t>1,67; 3,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,26</t>
+          <t>0,69; 3,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,8</t>
+          <t>3,31; 6,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,96</t>
+          <t>3,03; 7,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,34</t>
+          <t>2,73; 4,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,94</t>
+          <t>2,06; 4,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>3,06; 6,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,51</t>
+          <t>2,13; 6,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,76</t>
+          <t>4,7; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,67</t>
+          <t>5,34; 10,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,74</t>
+          <t>4,3; 6,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,81</t>
+          <t>4,01; 7,72</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,27</t>
+          <t>4,91; 9,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,93</t>
+          <t>2,59; 6,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,24</t>
+          <t>9,88; 15,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,45</t>
+          <t>7,35; 12,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,07</t>
+          <t>8,14; 11,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,62</t>
+          <t>5,47; 8,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1119,39 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,92</t>
+          <t>8,96; 14,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,34</t>
+          <t>6,05; 11,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,73</t>
+          <t>17,28; 23,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,44</t>
+          <t>9,34; 15,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,34</t>
+          <t>14,78; 18,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,49</t>
+          <t>8,85; 12,67</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1161,32 +1162,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -1199,293 +1200,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,6</t>
+          <t>3,76; 5,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,39</t>
+          <t>2,07; 3,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,43</t>
+          <t>7,22; 8,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,33</t>
+          <t>4,85; 6,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,05</t>
+          <t>5,8; 6,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,36</t>
+          <t>3,65; 4,67</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>10,12%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>6,99%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 6,1</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 7,65</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 12,92</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>8,73; 13,24</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 8,63</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 9,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,7%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>10,3%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>19,76%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>11,25%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>15,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 11,55</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>8,22; 13,2</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>10,7; 16,57</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>17,3; 22,44</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 13,31</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 17,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 4,08</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 4,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 7,51</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 7,46</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,45; 5,56</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 5,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1495,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante el insomnio</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2633</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>218; 1794</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>344; 3729</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>323; 4108</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>468; 2777</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>926; 5575</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3083</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2167</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>273; 1942</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>764; 6907</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>508; 2524</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1150; 6993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2640</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7146</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9786</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>825; 3099</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>714; 6277</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1322; 4148</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3860; 12856</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2655; 5896</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5843; 15654</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6611</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13264</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17656</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2302; 5457</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2049; 10192</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4568; 9037</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8447; 20638</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7551; 12949</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11850; 25538</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8991</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9092</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18985</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14879</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27977</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3857; 8181</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4988; 14603</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6895; 11822</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13560; 27557</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11723; 18853</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19598; 37709</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7494</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18303</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21547</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25537</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5273; 10277</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4749; 11025</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11360; 17618</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13894; 23897</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>18099; 25699</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20395; 32542</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11251</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12413</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26106</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>38371</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38519</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8615; 14386</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8909; 16261</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23041; 31440</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19878; 32205</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>33927; 43390</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31876; 45627</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>30807</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>37354</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>60625</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>87837</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>91432</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>125191</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26148; 36000</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>30270; 46563</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>54620; 67438</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>75914; 102790</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>84138; 100408</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>110505; 141288</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
@@ -522,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1285,7 +1285,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,86</t>
+          <t>0,28; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,22</t>
+          <t>0,25; 1,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,07</t>
+          <t>0,33; 2,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,91</t>
+          <t>0,31; 1,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,26</t>
+          <t>1,08; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,24</t>
+          <t>1,13; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,06</t>
+          <t>1,34; 3,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,95</t>
+          <t>1,72; 4,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,54</t>
+          <t>2,86; 5,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,69</t>
+          <t>2,49; 4,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,48</t>
+          <t>2,54; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,06</t>
+          <t>4,5; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,91</t>
+          <t>3,97; 6,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,57</t>
+          <t>5,44; 10,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,32</t>
+          <t>9,39; 14,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,56</t>
+          <t>8,05; 11,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,97</t>
+          <t>8,96; 14,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 23,58</t>
+          <t>17,43; 23,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,91</t>
+          <t>15,02; 19,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,18</t>
+          <t>3,43; 4,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,91</t>
+          <t>6,7; 8,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 6,92</t>
+          <t>5,29; 6,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>271</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>854</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>218; 1794</t>
+          <t>216; 1510</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1938</t>
+          <t>0; 1078</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>468; 2777</t>
+          <t>365; 1902</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>745</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1225</t>
+          <t>0; 1044</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>273; 1942</t>
+          <t>226; 1587</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>508; 2524</t>
+          <t>442; 2108</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>825; 3099</t>
+          <t>1121; 3832</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1322; 4148</t>
+          <t>1258; 3868</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2655; 5896</t>
+          <t>2873; 6545</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10204</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2302; 5457</t>
+          <t>2479; 5953</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4568; 9037</t>
+          <t>4356; 8730</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7551; 12949</t>
+          <t>7387; 12527</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9092</t>
+          <t>9160</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14879</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3857; 8181</t>
+          <t>3280; 7060</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6895; 11822</t>
+          <t>6847; 12255</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11723; 18853</t>
+          <t>11175; 17803</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>7523</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14052</t>
+          <t>13542</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21547</t>
+          <t>21065</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5273; 10277</t>
+          <t>5675; 10584</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11360; 17618</t>
+          <t>10880; 16590</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18099; 25699</t>
+          <t>17731; 25059</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11251</t>
+          <t>10113</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>27120</t>
+          <t>27279</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38371</t>
+          <t>37393</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8615; 14386</t>
+          <t>7979; 12896</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>23041; 31440</t>
+          <t>22981; 31054</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>33927; 43390</t>
+          <t>33191; 42359</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>60625</t>
+          <t>59302</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91432</t>
+          <t>88549</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26148; 36000</t>
+          <t>24801; 33608</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54620; 67438</t>
+          <t>53503; 65706</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>84138; 100408</t>
+          <t>80531; 96070</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Edad-trans_dic.xlsx
@@ -550,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -602,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,76%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -640,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,2; 2,19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0,28; 1,97</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,19</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,19; 2,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,63</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,41</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,27; 1,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 1,64</t>
         </is>
       </c>
     </row>
@@ -682,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,37%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,08%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -720,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,19</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,36; 3,26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,33; 2,29</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 3,26</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,29; 1,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,31; 1,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 1,77</t>
         </is>
       </c>
     </row>
@@ -762,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>2,09%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,99%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,04%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -800,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,29; 2,52</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>1,08; 3,68</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,52</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>1,56; 5,2</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>1,13; 3,48</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 5,2</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,18; 3,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,34; 3,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 3,16</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>2,66%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,35%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -880,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,69; 3,43</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>1,72; 4,12</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 3,43</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>3,03; 7,4</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2,86; 5,73</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 7,4</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,06; 4,43</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,49; 4,22</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 4,43</t>
         </is>
       </c>
     </row>
@@ -922,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>3,66%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,13; 6,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>2,54; 5,46</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 6,24</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>5,34; 10,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>4,5; 8,06</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 10,85</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>4,01; 7,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>3,97; 6,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 7,72</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>7,21%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>11,68%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,69%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1040,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,59; 6,01</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>5,44; 10,14</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 6,01</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>7,35; 12,65</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>9,39; 14,31</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 12,65</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>5,47; 8,74</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8,05; 11,38</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 8,74</t>
         </is>
       </c>
     </row>
@@ -1082,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>11,35%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>20,69%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>12,26%</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>16,93%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1120,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,05; 11,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>8,96; 14,48</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 11,04</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>9,34; 15,13</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>17,43; 23,56</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 15,13</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>8,85; 12,67</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>15,02; 19,17</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 12,67</t>
         </is>
       </c>
     </row>
@@ -1162,32 +1162,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>4,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>7,43%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5,82%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -1200,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,07; 3,18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>3,43; 4,65</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 3,18</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>4,85; 6,57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>6,7; 8,23</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 6,57</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>3,65; 4,67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>5,29; 6,32</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>3,65; 4,67</t>
         </is>
       </c>
     </row>
@@ -1313,32 +1313,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1365,22 +1365,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -1403,32 +1403,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>584</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1253</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>271</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1380</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2633</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>854</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2633</t>
         </is>
       </c>
     </row>
@@ -1441,32 +1441,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>344; 3729</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>216; 1510</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>344; 3729</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>323; 4108</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0; 1078</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>323; 4108</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>926; 5575</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>365; 1902</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>926; 5575</t>
         </is>
       </c>
     </row>
@@ -1483,32 +1483,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -1521,32 +1521,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>275</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>745</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2654</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1020</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3083</t>
         </is>
       </c>
     </row>
@@ -1559,32 +1559,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 2167</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>0; 1044</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2167</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>764; 6907</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>226; 1587</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>764; 6907</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1150; 6993</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>442; 2108</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1150; 6993</t>
         </is>
       </c>
     </row>
@@ -1601,14 +1601,14 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>13</t>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -1639,32 +1639,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2640</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>2177</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2640</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7146</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2205</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7146</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>9786</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4382</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9786</t>
         </is>
       </c>
     </row>
@@ -1677,32 +1677,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>714; 6277</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>1121; 3832</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>714; 6277</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>3860; 12856</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1258; 3868</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3860; 12856</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>5843; 15654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2873; 6545</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5843; 15654</t>
         </is>
       </c>
     </row>
@@ -1719,32 +1719,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>3845</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4392</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>13264</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6101</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13264</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>17656</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9945</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17656</t>
         </is>
       </c>
     </row>
@@ -1795,32 +1795,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2049; 10192</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>2479; 5953</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2049; 10192</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>8447; 20638</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>4356; 8730</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>8447; 20638</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>11850; 25538</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7387; 12527</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>11850; 25538</t>
         </is>
       </c>
     </row>
@@ -1837,32 +1837,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>83</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
     </row>
@@ -1875,32 +1875,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>8991</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>4731</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8991</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>18985</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>9160</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>18985</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>27977</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>13890</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>27977</t>
         </is>
       </c>
     </row>
@@ -1913,32 +1913,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4988; 14603</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>3280; 7060</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4988; 14603</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>13560; 27557</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>6847; 12255</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>13560; 27557</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>19598; 37709</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>11175; 17803</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>19598; 37709</t>
         </is>
       </c>
     </row>
@@ -1955,32 +1955,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>127</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
         </is>
       </c>
     </row>
@@ -1993,32 +1993,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>7523</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>7234</t>
-        </is>
-      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>18303</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>13542</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>18303</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>25537</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>21065</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>25537</t>
         </is>
       </c>
     </row>
@@ -2031,32 +2031,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>4749; 11025</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
           <t>5675; 10584</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>4749; 11025</t>
-        </is>
-      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>13894; 23897</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>10880; 16590</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>13894; 23897</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
+          <t>20395; 32542</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>17731; 25059</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>20395; 32542</t>
         </is>
       </c>
     </row>
@@ -2073,32 +2073,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>228</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
         </is>
       </c>
     </row>
@@ -2111,32 +2111,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>12413</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>10113</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>12413</t>
-        </is>
-      </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>26106</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>27279</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>26106</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
+          <t>38519</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>37393</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>38519</t>
         </is>
       </c>
     </row>
@@ -2149,32 +2149,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>8909; 16261</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>7979; 12896</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8909; 16261</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>19878; 32205</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>22981; 31054</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>19878; 32205</t>
-        </is>
-      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
+          <t>31876; 45627</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>33191; 42359</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>31876; 45627</t>
         </is>
       </c>
     </row>
@@ -2191,32 +2191,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>355</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>533</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>294</t>
         </is>
       </c>
     </row>
@@ -2229,32 +2229,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>37354</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
           <t>29247</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>37354</t>
-        </is>
-      </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>87837</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>59302</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>87837</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>125191</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>88549</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>125191</t>
         </is>
       </c>
     </row>
@@ -2267,32 +2267,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>30270; 46563</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>24801; 33608</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>30270; 46563</t>
-        </is>
-      </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
+          <t>75914; 102790</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>53503; 65706</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>75914; 102790</t>
-        </is>
-      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
+          <t>110505; 141288</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>80531; 96070</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>110505; 141288</t>
         </is>
       </c>
     </row>
